--- a/datos2.xlsx
+++ b/datos2.xlsx
@@ -1,38 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mferrera\Desktop\ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71032B29-9F77-4DE1-B744-B7961F338C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04742D5E-B000-4FE5-83FF-E92D87493EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4CDC8F3C-6949-4201-8961-B33FD9E752F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Grupo</t>
+  </si>
   <si>
     <t>TotalVenta</t>
   </si>
   <si>
-    <t>Grupo</t>
-  </si>
-  <si>
     <t>*Repuestos*</t>
   </si>
   <si>
@@ -70,27 +81,20 @@
   </si>
   <si>
     <t>TUBERIA-POT-CMTDA</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -112,18 +116,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -150,42 +150,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -215,12 +215,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -250,6 +267,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -311,13 +345,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -326,6 +353,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -390,46 +424,60 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7918B5D6-B9C8-4F89-9D66-1C45DE042DC9}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>938.78332051796826</v>
       </c>
     </row>
@@ -437,10 +485,10 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>524.69660673267856</v>
       </c>
     </row>
@@ -448,98 +496,98 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
-        <v>7380.82088551787</v>
+      <c r="C4">
+        <v>7428.6916982903822</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
-        <v>1450.3986301351401</v>
+      <c r="C5">
+        <v>1460.7116767918853</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
-        <v>5225.4244493658125</v>
+      <c r="C6">
+        <v>5279.9791607310508</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
-        <v>11545.961741892335</v>
+      <c r="C7">
+        <v>11993.645875465872</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
-        <v>16505.023379476759</v>
+      <c r="C8">
+        <v>20281.501800405716</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
-        <v>13845.373424647654</v>
+      <c r="C9">
+        <v>14452.166980951666</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
-        <v>78381.754203283272</v>
+      <c r="C10">
+        <v>87537.204452624021</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
-        <v>86845.591920324732</v>
+      <c r="C11">
+        <v>89482.285479239654</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>1547.1423727045076</v>
       </c>
     </row>
@@ -547,10 +595,10 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>601.94749643651005</v>
       </c>
     </row>
@@ -558,273 +606,23 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3">
-        <v>16834.720642588643</v>
+      <c r="C14">
+        <v>19066.808577629505</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101"/>
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>260595.56549852123</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos2.xlsx
+++ b/datos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mferrera\Desktop\ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04742D5E-B000-4FE5-83FF-E92D87493EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E7E1A-5177-4AA5-B844-976BEDECEDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4CDC8F3C-6949-4201-8961-B33FD9E752F5}"/>
   </bookViews>
@@ -38,33 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Grupo</t>
-  </si>
-  <si>
-    <t>TotalVenta</t>
-  </si>
-  <si>
-    <t>*Repuestos*</t>
-  </si>
-  <si>
-    <t>ACCESORIO-CPVC</t>
-  </si>
-  <si>
-    <t>ACCESORIO-DRENAJE</t>
-  </si>
-  <si>
-    <t>ACCESORIO-DUCTO-ELEC</t>
-  </si>
-  <si>
-    <t>ACCESORIO-PRESION</t>
-  </si>
-  <si>
-    <t>CONDUIT</t>
-  </si>
-  <si>
-    <t>Corrugado</t>
-  </si>
-  <si>
     <t>DRENAJE</t>
   </si>
   <si>
@@ -84,6 +57,33 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Australia and Oceania</t>
+  </si>
+  <si>
+    <t>Central America and the Caribbean</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Middle East and North Africa</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa</t>
   </si>
 </sst>
 </file>
@@ -464,10 +464,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -475,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>938.78332051796826</v>
+        <v>388924002609</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -486,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>524.69660673267856</v>
+        <v>215479185155.94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -497,10 +497,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>7428.6916982903822</v>
+        <v>288216187651.78003</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -508,10 +508,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>1460.7116767918853</v>
+        <v>689404618577.68005</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -519,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>5279.9791607310508</v>
+        <v>331045785831.76001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -530,10 +530,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>11993.645875465872</v>
+        <v>57427679885.720001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -541,10 +541,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>20281.501800405716</v>
+        <v>691449172646.72998</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -552,7 +552,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>14452.166980951666</v>
@@ -563,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>87537.204452624021</v>
@@ -574,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>89482.285479239654</v>
@@ -585,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1547.1423727045076</v>
@@ -596,7 +596,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>601.94749643651005</v>
@@ -607,7 +607,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>19066.808577629505</v>
@@ -618,7 +618,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>260595.56549852123</v>
